--- a/Data/data gathering.xlsx
+++ b/Data/data gathering.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komaiyumi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komaiyumi/Desktop/Social Sicence/web/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="780" windowWidth="18460" windowHeight="12660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="520" yWindow="6540" windowWidth="23040" windowHeight="11880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ALL pisa" sheetId="7" r:id="rId1"/>
@@ -1362,7 +1362,15 @@
     <cellStyle name="Normal 14 2 4" xfId="2"/>
     <cellStyle name="Normal 2 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6E0B4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1646,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD62"/>
+    <sheetView topLeftCell="B19" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2716,10 +2724,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I59" zoomScale="109" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4747,78 +4756,81 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58">
-        <v>20.7817825772944</v>
+        <v>93.179988006510797</v>
       </c>
       <c r="C58">
-        <v>65.394785476671103</v>
+        <v>124.57217000428901</v>
       </c>
       <c r="D58">
-        <v>4912817417.7831907</v>
+        <v>543880647757.40405</v>
       </c>
       <c r="E58">
-        <v>3988.6671671561207</v>
+        <v>57134.077068240418</v>
       </c>
       <c r="F58">
-        <v>1231694</v>
+        <v>9519374</v>
       </c>
       <c r="G58">
-        <v>38.158016520337</v>
+        <v>16.617123124251499</v>
       </c>
       <c r="H58">
-        <v>71.610116279069771</v>
+        <v>23.369602788825059</v>
       </c>
       <c r="J58">
-        <v>29.0595893859863</v>
-      </c>
-      <c r="K58">
-        <v>67.581016540527301</v>
+        <v>9.6456699371337908</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="M58">
+        <v>7.65618991851807</v>
+      </c>
+      <c r="N58">
+        <v>22.609420776367202</v>
+      </c>
+      <c r="O58">
+        <v>15.249799728393601</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="26" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="B59">
-        <v>93.179988006510797</v>
+        <v>85.2</v>
       </c>
       <c r="C59">
-        <v>124.57217000428901</v>
+        <v>132.05637232805299</v>
       </c>
       <c r="D59">
-        <v>543880647757.40405</v>
+        <v>665408300271.74316</v>
       </c>
       <c r="E59">
-        <v>57134.077068240418</v>
+        <v>83208.686542349955</v>
       </c>
       <c r="F59">
-        <v>9519374</v>
+        <v>7996861</v>
       </c>
       <c r="G59">
-        <v>16.617123124251499</v>
+        <v>14.8617759666782</v>
       </c>
       <c r="H59">
-        <v>23.369602788825059</v>
+        <v>202.37020447413707</v>
       </c>
       <c r="J59">
-        <v>9.6456699371337908</v>
+        <v>10.754199981689499</v>
       </c>
       <c r="L59">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M59">
-        <v>7.65618991851807</v>
-      </c>
-      <c r="N59">
-        <v>22.609420776367202</v>
+        <v>5.0533099174499503</v>
       </c>
       <c r="O59">
-        <v>15.249799728393601</v>
+        <v>16.099510192871101</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,7 +5128,7 @@
         <v>21.437339782714801</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>261</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>12.823169708251999</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -5186,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>276.13499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -5232,7 +5244,7 @@
         <v>14.769330024719199</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5261,7 +5273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>253</v>
       </c>
@@ -5296,7 +5308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>258</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>255</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>13.7018699645996</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>263</v>
       </c>
@@ -5398,7 +5410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -5442,7 +5454,7 @@
         <v>5.7218399047851598</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -5512,7 +5524,7 @@
         <v>8.9480400085449201</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>245</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>14.663499832153301</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>13.6895799636841</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>13.1807203292847</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -5661,7 +5673,7 @@
         <v>15.9446697235107</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>25.0213108062744</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>233</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>8.2034196853637695</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -5810,7 +5822,7 @@
         <v>17.828750610351602</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -5839,7 +5851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -5871,7 +5883,7 @@
         <v>99.5328369140625</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -5891,7 +5903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>9.7278203964233398</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -5976,7 +5988,7 @@
         <v>15.895389556884799</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>249</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>16.428359985351602</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -6058,7 +6070,7 @@
         <v>14.4821996688843</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>7.5360698699951199</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>223</v>
       </c>
@@ -6137,7 +6149,7 @@
         <v>15.1762504577637</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -6181,7 +6193,7 @@
         <v>18.809259414672901</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>214</v>
       </c>
@@ -6207,7 +6219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>231</v>
       </c>
@@ -6239,7 +6251,7 @@
         <v>57.917018890380902</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>229</v>
       </c>
@@ -6277,7 +6289,7 @@
         <v>11.312580108642599</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>37</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -6326,7 +6338,7 @@
         <v>849.13684210526321</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>225</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -6393,7 +6405,7 @@
         <v>18.491510391235401</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -6434,7 +6446,7 @@
         <v>7.9608101844787598</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -6469,7 +6481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -6504,7 +6516,7 @@
         <v>99.384429931640597</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -6542,7 +6554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>10.0389699935913</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>210</v>
       </c>
@@ -6597,7 +6609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -6629,7 +6641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>207</v>
       </c>
@@ -6670,7 +6682,7 @@
         <v>15.1072902679443</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -6699,7 +6711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -6737,7 +6749,7 @@
         <v>18.3699502944946</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>205</v>
       </c>
@@ -6769,7 +6781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -6801,7 +6813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -6848,7 +6860,7 @@
         <v>10.348290443420399</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>199</v>
       </c>
@@ -6880,7 +6892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -6909,7 +6921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>178</v>
       </c>
@@ -6941,7 +6953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>197</v>
       </c>
@@ -6958,7 +6970,7 @@
         <v>89.554252624511705</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>194</v>
       </c>
@@ -6996,7 +7008,7 @@
         <v>30.5395393371582</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -7034,7 +7046,7 @@
         <v>11.83863019943235</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>201</v>
       </c>
@@ -7072,7 +7084,7 @@
         <v>12.240330219268799</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -7113,7 +7125,7 @@
         <v>13.1807203292847</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>35</v>
       </c>
@@ -7151,7 +7163,7 @@
         <v>12.24665021896365</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>193</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>11.312580108642599</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>188</v>
       </c>
@@ -7215,7 +7227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>12.547269821166999</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -7285,7 +7297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>67</v>
       </c>
@@ -7305,7 +7317,7 @@
         <v>74.801912568306008</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>186</v>
       </c>
@@ -7337,7 +7349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>180</v>
       </c>
@@ -7378,7 +7390,7 @@
         <v>13.800299644470201</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -7413,7 +7425,7 @@
         <v>6.7077598571777299</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>183</v>
       </c>
@@ -7457,7 +7469,7 @@
         <v>37.686920166015597</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>175</v>
       </c>
@@ -7500,7 +7512,7 @@
         <v>0.13840906322329152</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>176</v>
       </c>
@@ -7529,7 +7541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>173</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>301.49444444444447</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>174</v>
       </c>
@@ -7590,7 +7602,7 @@
         <v>21.105140686035199</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>181</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>9.4606103897094709</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>179</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>14.5397996902466</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -7710,7 +7722,7 @@
         <v>10.26060962677</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>166</v>
       </c>
@@ -7739,7 +7751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -7780,7 +7792,7 @@
         <v>15.9212799072266</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>12.4227504730225</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>169</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>19.125419616699201</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -7891,7 +7903,7 @@
         <v>14.960619926452599</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7929,7 +7941,7 @@
         <v>15.1762504577637</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -7970,7 +7982,7 @@
         <v>15.1762504577637</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -8011,7 +8023,7 @@
         <v>15.9212799072266</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -8052,7 +8064,7 @@
         <v>15.9083347320557</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -8087,7 +8099,7 @@
         <v>14.062680244445801</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -8128,7 +8140,7 @@
         <v>17.034309387206999</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -8174,7 +8186,7 @@
         <v>150.48947368421054</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>18.809259414672901</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -8244,7 +8256,7 @@
         <v>56.574699401855497</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>142</v>
       </c>
@@ -8270,7 +8282,7 @@
         <v>131.62962962962962</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>72</v>
       </c>
@@ -8293,7 +8305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>139</v>
       </c>
@@ -8310,7 +8322,7 @@
         <v>165.81243685129053</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>138</v>
       </c>
@@ -8348,7 +8360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>18.1955890655518</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>136</v>
       </c>
@@ -8424,7 +8436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>123</v>
       </c>
@@ -8459,7 +8471,7 @@
         <v>13.7018699645996</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>131</v>
       </c>
@@ -8494,7 +8506,7 @@
         <v>16.432104587554949</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>137</v>
       </c>
@@ -8535,7 +8547,7 @@
         <v>16.6991801261902</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>30</v>
       </c>
@@ -8576,7 +8588,7 @@
         <v>17.828750610351602</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>130</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>14.663499832153301</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>135</v>
       </c>
@@ -8655,7 +8667,7 @@
         <v>7.1091499328613299</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>124</v>
       </c>
@@ -8690,7 +8702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>134</v>
       </c>
@@ -8725,7 +8737,7 @@
         <v>8.1017599105834996</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -8751,7 +8763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>125</v>
       </c>
@@ -8789,7 +8801,7 @@
         <v>15.1762504577637</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>129</v>
       </c>
@@ -8830,7 +8842,7 @@
         <v>15.9212799072266</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>126</v>
       </c>
@@ -8862,7 +8874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>108</v>
       </c>
@@ -8894,7 +8906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>114</v>
       </c>
@@ -8935,7 +8947,7 @@
         <v>20.325679779052699</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>97</v>
       </c>
@@ -8970,7 +8982,7 @@
         <v>11.238639831543001</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>113</v>
       </c>
@@ -9008,7 +9020,7 @@
         <v>15.2921495437622</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>107</v>
       </c>
@@ -9046,7 +9058,7 @@
         <v>22.403379440307599</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>106</v>
       </c>
@@ -9084,7 +9096,7 @@
         <v>15.2565803527832</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>110</v>
       </c>
@@ -9107,7 +9119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>99</v>
       </c>
@@ -9151,7 +9163,7 @@
         <v>10.017749786376999</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>98</v>
       </c>
@@ -9198,7 +9210,7 @@
         <v>14.960619926452599</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -9224,7 +9236,7 @@
         <v>147.88</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -9259,7 +9271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>104</v>
       </c>
@@ -9294,7 +9306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>29</v>
       </c>
@@ -9329,7 +9341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>109</v>
       </c>
@@ -9361,7 +9373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>115</v>
       </c>
@@ -9399,7 +9411,7 @@
         <v>20.823469161987301</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>116</v>
       </c>
@@ -9425,7 +9437,7 @@
         <v>8.8759498596191406</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>102</v>
       </c>
@@ -9460,7 +9472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>117</v>
       </c>
@@ -9498,7 +9510,7 @@
         <v>19.3006401062012</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>100</v>
       </c>
@@ -9539,7 +9551,7 @@
         <v>19.767240524291999</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>105</v>
       </c>
@@ -9568,7 +9580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>94</v>
       </c>
@@ -9597,7 +9609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>86</v>
       </c>
@@ -9614,7 +9626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>87</v>
       </c>
@@ -9646,7 +9658,7 @@
         <v>92.559028625488295</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>93</v>
       </c>
@@ -9666,7 +9678,7 @@
         <v>14.168490153172867</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>90</v>
       </c>
@@ -9695,7 +9707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>92</v>
       </c>
@@ -9739,7 +9751,7 @@
         <v>19.192020416259801</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>91</v>
       </c>
@@ -9768,7 +9780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -9800,7 +9812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>101</v>
       </c>
@@ -9811,12 +9823,12 @@
         <v>115.9</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>84</v>
       </c>
@@ -9854,7 +9866,7 @@
         <v>12.240330219268799</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>83</v>
       </c>
@@ -9880,7 +9892,7 @@
         <v>11.454578352180937</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>82</v>
       </c>
@@ -9921,7 +9933,7 @@
         <v>12.057909965515099</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>69</v>
       </c>
@@ -9953,7 +9965,7 @@
         <v>74.895700000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>81</v>
       </c>
@@ -10000,7 +10012,7 @@
         <v>11.0406303405762</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>77</v>
       </c>
@@ -10023,7 +10035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>80</v>
       </c>
@@ -10058,7 +10070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>76</v>
       </c>
@@ -10084,7 +10096,7 @@
         <v>15.799297796228416</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>70</v>
       </c>
@@ -10125,7 +10137,7 @@
         <v>19.6024494171143</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>78</v>
       </c>
@@ -10154,7 +10166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -10189,7 +10201,7 @@
         <v>12.995735168457049</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>74</v>
       </c>
@@ -10224,7 +10236,7 @@
         <v>14.85802507400515</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>73</v>
       </c>
@@ -10259,7 +10271,7 @@
         <v>18.8315105438232</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>63</v>
       </c>
@@ -10306,7 +10318,7 @@
         <v>15.9212799072266</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -10335,7 +10347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>54</v>
       </c>
@@ -10355,7 +10367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>47</v>
       </c>
@@ -10399,7 +10411,7 @@
         <v>13.7196502685547</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>61</v>
       </c>
@@ -10431,7 +10443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="45" t="s">
         <v>59</v>
       </c>
@@ -10466,7 +10478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>40</v>
       </c>
@@ -10498,7 +10510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>56</v>
       </c>
@@ -10542,7 +10554,7 @@
         <v>14.1259603500366</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>41</v>
       </c>
@@ -10562,7 +10574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>48</v>
       </c>
@@ -10603,7 +10615,7 @@
         <v>12.929104804992651</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>57</v>
       </c>
@@ -10635,7 +10647,7 @@
         <v>54.306449890136697</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>53</v>
       </c>
@@ -10655,7 +10667,7 @@
         <v>15.993926738291835</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -10696,7 +10708,7 @@
         <v>20.622219085693398</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>62</v>
       </c>
@@ -10734,7 +10746,7 @@
         <v>12.823169708251999</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>26</v>
       </c>
@@ -10772,7 +10784,7 @@
         <v>12.823169708251999</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>50</v>
       </c>
@@ -10795,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>127</v>
       </c>
@@ -10836,7 +10848,7 @@
         <v>8.7517204284668004</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>141</v>
       </c>
@@ -10868,7 +10880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>132</v>
       </c>
@@ -10912,7 +10924,7 @@
         <v>12.1924495697021</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>118</v>
       </c>
@@ -10923,7 +10935,7 @@
         <v>569.09926470588232</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -10961,7 +10973,7 @@
         <v>17.514999389648398</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>49</v>
       </c>
@@ -10996,7 +11008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>51</v>
       </c>
@@ -11031,7 +11043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -11066,7 +11078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>60</v>
       </c>
@@ -11095,7 +11107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>46</v>
       </c>
@@ -11124,45 +11136,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>228</v>
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="45" t="s">
+        <v>42</v>
       </c>
       <c r="B246">
-        <v>85.2</v>
+        <v>20.7817825772944</v>
       </c>
       <c r="C246">
-        <v>132.05637232805299</v>
+        <v>65.394785476671103</v>
       </c>
       <c r="D246">
-        <v>665408300271.74316</v>
+        <v>4912817417.7831907</v>
       </c>
       <c r="E246">
-        <v>83208.686542349955</v>
+        <v>3988.6671671561207</v>
       </c>
       <c r="F246">
-        <v>7996861</v>
+        <v>1231694</v>
       </c>
       <c r="G246">
-        <v>14.8617759666782</v>
+        <v>38.158016520337</v>
       </c>
       <c r="H246">
-        <v>202.37020447413707</v>
+        <v>71.610116279069771</v>
       </c>
       <c r="J246">
-        <v>10.754199981689499</v>
+        <v>29.0595893859863</v>
+      </c>
+      <c r="K246">
+        <v>67.581016540527301</v>
       </c>
       <c r="L246">
-        <v>12</v>
-      </c>
-      <c r="M246">
-        <v>5.0533099174499503</v>
-      </c>
-      <c r="O246">
-        <v>16.099510192871101</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -11185,7 +11194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -11226,7 +11235,7 @@
         <v>16.3502407073975</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -11264,7 +11273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>28</v>
       </c>
@@ -11302,7 +11311,7 @@
         <v>6.66564989089966</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>17.6804294586182</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -11378,7 +11387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -11407,7 +11416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>31</v>
       </c>
@@ -11442,7 +11451,7 @@
         <v>20.795509338378899</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>38</v>
       </c>
@@ -11456,7 +11465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>21</v>
       </c>
@@ -11482,7 +11491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -11520,7 +11529,7 @@
         <v>12.609840393066399</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -11564,7 +11573,7 @@
         <v>13.665519714355501</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -11602,7 +11611,7 @@
         <v>14.960619926452599</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -11631,7 +11640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -11657,7 +11666,7 @@
         <v>20.303363412633306</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -11686,7 +11695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>10</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>300.78571428571428</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -11741,7 +11750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -11779,7 +11788,7 @@
         <v>14.252525329589851</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -11811,7 +11820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -11843,7 +11852,7 @@
         <v>92.655860900878906</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -11880,8 +11889,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:O268">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
     <sortState ref="A5:O268">
-      <sortCondition sortBy="cellColor" ref="A4:A268" dxfId="0"/>
+      <sortCondition sortBy="cellColor" ref="A4:A268" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
